--- a/StarProject/wwwroot/exceltemps/ProductTemplate.xlsx
+++ b/StarProject/wwwroot/exceltemps/ProductTemplate.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ApolloObs\StarProject\wwwroot\exceltemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13126AFF-EC18-47A3-8D7B-46876D93A77A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E8BB2D-BB8C-470C-8F02-E8D00343DC24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{C0BC6943-57E5-4CA5-9929-59B7643BA4FF}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="商品建檔" sheetId="1" r:id="rId1"/>
+    <sheet name="代碼對照" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,8 +25,50 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ispan</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{06285653-7173-4F72-B76E-572B338AAD56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>範例欄位請勿刪除！
+商品名稱不可輸入超過30字。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{73758822-AAA6-4012-8555-E2020155B9B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>範例欄位請勿刪除！
+商品定價限輸入半形整數數字。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>商品名稱</t>
   </si>
@@ -50,10 +92,6 @@
   </si>
   <si>
     <t>2025/09/08</t>
-  </si>
-  <si>
-    <t>商品分類對照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PROCAR</t>
@@ -116,13 +154,21 @@
   </si>
   <si>
     <t>望遠鏡</t>
+  </si>
+  <si>
+    <t>範例欄位請勿刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分類代碼對照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,8 +198,32 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +236,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,13 +266,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,6 +301,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E04951-D448-4ABB-9123-DAD4F94810DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E04951-D448-4ABB-9123-DAD4F94810DA}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -538,42 +638,45 @@
     <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -585,12 +688,13 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0C2B5C1-2B7E-40FE-BDAF-C32517865EBE}">
           <x14:formula1>
-            <xm:f>工作表2!$A$2:$A$11</xm:f>
+            <xm:f>代碼對照!$A$2:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
@@ -605,7 +709,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -615,88 +719,88 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
